--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-12.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1531"/>
+  <dimension ref="A1:G1452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39392,10 +39392,8 @@
       <c r="D1425" t="inlineStr"/>
       <c r="E1425" t="inlineStr"/>
       <c r="F1425" t="inlineStr"/>
-      <c r="G1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -39421,10 +39419,8 @@
           <t>190.0K</t>
         </is>
       </c>
-      <c r="G1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -39454,10 +39450,8 @@
           <t>$-122B</t>
         </is>
       </c>
-      <c r="G1427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1427" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1428">
@@ -39483,10 +39477,8 @@
           <t>$271B</t>
         </is>
       </c>
-      <c r="G1428" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1428" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1429">
@@ -39512,10 +39504,8 @@
           <t>$393B</t>
         </is>
       </c>
-      <c r="G1429" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1429" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1430">
@@ -39545,10 +39535,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1430" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1430" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1431">
@@ -39578,10 +39566,8 @@
           <t>1860.0K</t>
         </is>
       </c>
-      <c r="G1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -39607,10 +39593,8 @@
           <t>227.0K</t>
         </is>
       </c>
-      <c r="G1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -39640,10 +39624,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="G1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1434">
@@ -39673,10 +39655,8 @@
           <t>54.3</t>
         </is>
       </c>
-      <c r="G1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1435">
@@ -39706,10 +39686,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G1435" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1435" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1436">
@@ -39735,10 +39713,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="G1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1437">
@@ -39764,10 +39740,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G1437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1438">
@@ -39793,10 +39767,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="G1438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1439">
@@ -39822,10 +39794,8 @@
           <t>64</t>
         </is>
       </c>
-      <c r="G1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1440">
@@ -39851,10 +39821,8 @@
         </is>
       </c>
       <c r="F1440" t="inlineStr"/>
-      <c r="G1440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1441">
@@ -39876,10 +39844,8 @@
       </c>
       <c r="E1441" t="inlineStr"/>
       <c r="F1441" t="inlineStr"/>
-      <c r="G1441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1442">
@@ -39901,10 +39867,8 @@
       </c>
       <c r="E1442" t="inlineStr"/>
       <c r="F1442" t="inlineStr"/>
-      <c r="G1442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1443">
@@ -39926,10 +39890,8 @@
       </c>
       <c r="E1443" t="inlineStr"/>
       <c r="F1443" t="inlineStr"/>
-      <c r="G1443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1444">
@@ -39951,10 +39913,8 @@
       </c>
       <c r="E1444" t="inlineStr"/>
       <c r="F1444" t="inlineStr"/>
-      <c r="G1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -39972,10 +39932,8 @@
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr"/>
       <c r="F1445" t="inlineStr"/>
-      <c r="G1445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1445" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1446">
@@ -39989,65 +39947,91 @@
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr"/>
       <c r="F1446" t="inlineStr"/>
-      <c r="G1446" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1446" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>Friday April 04 2025</t>
-        </is>
-      </c>
-      <c r="B1447" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelAPR</t>
+        </is>
+      </c>
       <c r="C1447" t="inlineStr"/>
-      <c r="D1447" t="inlineStr"/>
+      <c r="D1447" t="inlineStr">
+        <is>
+          <t>52.6</t>
+        </is>
+      </c>
       <c r="E1447" t="inlineStr"/>
-      <c r="F1447" t="inlineStr"/>
-      <c r="G1447" t="inlineStr"/>
+      <c r="F1447" t="inlineStr">
+        <is>
+          <t>52.3</t>
+        </is>
+      </c>
+      <c r="G1447" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>Michigan Current Conditions PrelAPR</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr"/>
-      <c r="D1448" t="inlineStr"/>
+      <c r="D1448" t="inlineStr">
+        <is>
+          <t>63.8</t>
+        </is>
+      </c>
       <c r="E1448" t="inlineStr"/>
-      <c r="F1448" t="inlineStr"/>
+      <c r="F1448" t="inlineStr">
+        <is>
+          <t>63.4</t>
+        </is>
+      </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>Fed Balance SheetAPR/02</t>
+          <t>Michigan Inflation Expectations PrelAPR</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr"/>
       <c r="D1449" t="inlineStr">
         <is>
-          <t>$6.74T</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E1449" t="inlineStr"/>
-      <c r="F1449" t="inlineStr"/>
+      <c r="F1449" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="G1449" t="inlineStr">
         <is>
           <t>3</t>
@@ -40057,2052 +40041,57 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsMAR</t>
+          <t>Baker Hughes Oil Rig CountAPR/11</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr"/>
-      <c r="D1450" t="inlineStr">
-        <is>
-          <t>151K</t>
-        </is>
-      </c>
-      <c r="E1450" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
-      <c r="F1450" t="inlineStr">
-        <is>
-          <t>80.0K</t>
-        </is>
-      </c>
+      <c r="D1450" t="inlineStr"/>
+      <c r="E1450" t="inlineStr"/>
+      <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>Unemployment RateMAR</t>
+          <t>Baker Hughes Total Rigs CountAPR/11</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr"/>
-      <c r="D1451" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1451" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F1451" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="D1451" t="inlineStr"/>
+      <c r="E1451" t="inlineStr"/>
+      <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMMAR</t>
-        </is>
-      </c>
+          <t>Saturday April 12 2025</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr"/>
       <c r="C1452" t="inlineStr"/>
-      <c r="D1452" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1452" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1452" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1452" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1453">
-      <c r="A1453" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1453" t="inlineStr"/>
-      <c r="D1453" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E1453" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1453" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1454">
-      <c r="A1454" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr">
-        <is>
-          <t>Participation RateMAR</t>
-        </is>
-      </c>
-      <c r="C1454" t="inlineStr"/>
-      <c r="D1454" t="inlineStr">
-        <is>
-          <t>62.4%</t>
-        </is>
-      </c>
-      <c r="E1454" t="inlineStr"/>
-      <c r="F1454" t="inlineStr">
-        <is>
-          <t>62.4%</t>
-        </is>
-      </c>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1455">
-      <c r="A1455" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1455" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursMAR</t>
-        </is>
-      </c>
-      <c r="C1455" t="inlineStr"/>
-      <c r="D1455" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E1455" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1455" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1456">
-      <c r="A1456" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr">
-        <is>
-          <t>Government PayrollsMAR</t>
-        </is>
-      </c>
-      <c r="C1456" t="inlineStr"/>
-      <c r="D1456" t="inlineStr">
-        <is>
-          <t>11K</t>
-        </is>
-      </c>
-      <c r="E1456" t="inlineStr"/>
-      <c r="F1456" t="inlineStr">
-        <is>
-          <t>-50.0K</t>
-        </is>
-      </c>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1457">
-      <c r="A1457" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1457" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsMAR</t>
-        </is>
-      </c>
-      <c r="C1457" t="inlineStr"/>
-      <c r="D1457" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="E1457" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
-      <c r="F1457" t="inlineStr">
-        <is>
-          <t>1.0K</t>
-        </is>
-      </c>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1458">
-      <c r="A1458" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1458" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateMAR</t>
-        </is>
-      </c>
-      <c r="C1458" t="inlineStr"/>
-      <c r="D1458" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
-      <c r="E1458" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F1458" t="inlineStr">
-        <is>
-          <t>130.0K</t>
-        </is>
-      </c>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1459">
-      <c r="A1459" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1459" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateMAR</t>
-        </is>
-      </c>
-      <c r="C1459" t="inlineStr"/>
-      <c r="D1459" t="inlineStr">
-        <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="E1459" t="inlineStr"/>
-      <c r="F1459" t="inlineStr">
-        <is>
-          <t>8.1%</t>
-        </is>
-      </c>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1460">
-      <c r="A1460" t="inlineStr">
-        <is>
-          <t>08:55 PM</t>
-        </is>
-      </c>
-      <c r="B1460" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Speech</t>
-        </is>
-      </c>
-      <c r="C1460" t="inlineStr"/>
-      <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr"/>
-      <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1461">
-      <c r="A1461" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1461" t="inlineStr">
-        <is>
-          <t>Fed Barr Speech</t>
-        </is>
-      </c>
-      <c r="C1461" t="inlineStr"/>
-      <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr"/>
-      <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1462">
-      <c r="A1462" t="inlineStr">
-        <is>
-          <t>10:15 PM</t>
-        </is>
-      </c>
-      <c r="B1462" t="inlineStr">
-        <is>
-          <t>Fed Waller Speech</t>
-        </is>
-      </c>
-      <c r="C1462" t="inlineStr"/>
-      <c r="D1462" t="inlineStr"/>
-      <c r="E1462" t="inlineStr"/>
-      <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1463">
-      <c r="A1463" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1463" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/04</t>
-        </is>
-      </c>
-      <c r="C1463" t="inlineStr"/>
-      <c r="D1463" t="inlineStr">
-        <is>
-          <t>484</t>
-        </is>
-      </c>
-      <c r="E1463" t="inlineStr"/>
-      <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1464">
-      <c r="A1464" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1464" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/04</t>
-        </is>
-      </c>
-      <c r="C1464" t="inlineStr"/>
-      <c r="D1464" t="inlineStr">
-        <is>
-          <t>592</t>
-        </is>
-      </c>
-      <c r="E1464" t="inlineStr"/>
-      <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1465">
-      <c r="A1465" t="inlineStr">
-        <is>
-          <t>Saturday April 05 2025</t>
-        </is>
-      </c>
-      <c r="B1465" t="inlineStr"/>
-      <c r="C1465" t="inlineStr"/>
-      <c r="D1465" t="inlineStr"/>
-      <c r="E1465" t="inlineStr"/>
-      <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr"/>
-    </row>
-    <row r="1466">
-      <c r="A1466" t="inlineStr">
-        <is>
-          <t>Monday April 07 2025</t>
-        </is>
-      </c>
-      <c r="B1466" t="inlineStr"/>
-      <c r="C1466" t="inlineStr"/>
-      <c r="D1466" t="inlineStr"/>
-      <c r="E1466" t="inlineStr"/>
-      <c r="F1466" t="inlineStr"/>
-      <c r="G1466" t="inlineStr"/>
-    </row>
-    <row r="1467">
-      <c r="A1467" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1467" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1467" t="inlineStr"/>
-      <c r="D1467" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E1467" t="inlineStr"/>
-      <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1468">
-      <c r="A1468" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1468" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1468" t="inlineStr"/>
-      <c r="D1468" t="inlineStr">
-        <is>
-          <t>4.070%</t>
-        </is>
-      </c>
-      <c r="E1468" t="inlineStr"/>
-      <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1469">
-      <c r="A1469" t="inlineStr"/>
-      <c r="B1469" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1469" t="inlineStr"/>
-      <c r="D1469" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E1469" t="inlineStr"/>
-      <c r="F1469" t="inlineStr"/>
-      <c r="G1469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1470">
-      <c r="A1470" t="inlineStr"/>
-      <c r="B1470" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1470" t="inlineStr"/>
-      <c r="D1470" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1470" t="inlineStr"/>
-      <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1471">
-      <c r="A1471" t="inlineStr">
-        <is>
-          <t>Tuesday April 08 2025</t>
-        </is>
-      </c>
-      <c r="B1471" t="inlineStr"/>
-      <c r="C1471" t="inlineStr"/>
-      <c r="D1471" t="inlineStr"/>
-      <c r="E1471" t="inlineStr"/>
-      <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr"/>
-    </row>
-    <row r="1472">
-      <c r="A1472" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1472" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeFEB</t>
-        </is>
-      </c>
-      <c r="C1472" t="inlineStr"/>
-      <c r="D1472" t="inlineStr">
-        <is>
-          <t>$18.08B</t>
-        </is>
-      </c>
-      <c r="E1472" t="inlineStr"/>
-      <c r="F1472" t="inlineStr">
-        <is>
-          <t>$15.0B</t>
-        </is>
-      </c>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1473">
-      <c r="A1473" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1473" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1473" t="inlineStr"/>
-      <c r="D1473" t="inlineStr">
-        <is>
-          <t>100.7</t>
-        </is>
-      </c>
-      <c r="E1473" t="inlineStr"/>
-      <c r="F1473" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G1473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1474">
-      <c r="A1474" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B1474" t="inlineStr">
-        <is>
-          <t>Redbook YoYAPR/05</t>
-        </is>
-      </c>
-      <c r="C1474" t="inlineStr"/>
-      <c r="D1474" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="E1474" t="inlineStr"/>
-      <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1475">
-      <c r="A1475" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1475" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1475" t="inlineStr"/>
-      <c r="D1475" t="inlineStr">
-        <is>
-          <t>3.908%</t>
-        </is>
-      </c>
-      <c r="E1475" t="inlineStr"/>
-      <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1476">
-      <c r="A1476" t="inlineStr">
-        <is>
-          <t>Wednesday April 09 2025</t>
-        </is>
-      </c>
-      <c r="B1476" t="inlineStr"/>
-      <c r="C1476" t="inlineStr"/>
-      <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr"/>
-      <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr"/>
-    </row>
-    <row r="1477">
-      <c r="A1477" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1477" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1477" t="inlineStr"/>
-      <c r="D1477" t="inlineStr">
-        <is>
-          <t>6.037M</t>
-        </is>
-      </c>
-      <c r="E1477" t="inlineStr"/>
-      <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1478">
-      <c r="A1478" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1478" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateAPR/04</t>
-        </is>
-      </c>
-      <c r="C1478" t="inlineStr"/>
-      <c r="D1478" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="E1478" t="inlineStr"/>
-      <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1479">
-      <c r="A1479" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1479" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsAPR/04</t>
-        </is>
-      </c>
-      <c r="C1479" t="inlineStr"/>
-      <c r="D1479" t="inlineStr">
-        <is>
-          <t>-1.6%</t>
-        </is>
-      </c>
-      <c r="E1479" t="inlineStr"/>
-      <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1480">
-      <c r="A1480" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1480" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexAPR/04</t>
-        </is>
-      </c>
-      <c r="C1480" t="inlineStr"/>
-      <c r="D1480" t="inlineStr">
-        <is>
-          <t>243.6</t>
-        </is>
-      </c>
-      <c r="E1480" t="inlineStr"/>
-      <c r="F1480" t="inlineStr"/>
-      <c r="G1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1481">
-      <c r="A1481" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1481" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexAPR/04</t>
-        </is>
-      </c>
-      <c r="C1481" t="inlineStr"/>
-      <c r="D1481" t="inlineStr">
-        <is>
-          <t>710.4</t>
-        </is>
-      </c>
-      <c r="E1481" t="inlineStr"/>
-      <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1482">
-      <c r="A1482" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1482" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexAPR/04</t>
-        </is>
-      </c>
-      <c r="C1482" t="inlineStr"/>
-      <c r="D1482" t="inlineStr">
-        <is>
-          <t>158.2</t>
-        </is>
-      </c>
-      <c r="E1482" t="inlineStr"/>
-      <c r="F1482" t="inlineStr"/>
-      <c r="G1482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1483">
-      <c r="A1483" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1483" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1483" t="inlineStr"/>
-      <c r="D1483" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1483" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1483" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1484">
-      <c r="A1484" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1484" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1484" t="inlineStr"/>
-      <c r="D1484" t="inlineStr">
-        <is>
-          <t>6.165M</t>
-        </is>
-      </c>
-      <c r="E1484" t="inlineStr"/>
-      <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1485">
-      <c r="A1485" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1485" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1485" t="inlineStr"/>
-      <c r="D1485" t="inlineStr">
-        <is>
-          <t>-1.551M</t>
-        </is>
-      </c>
-      <c r="E1485" t="inlineStr"/>
-      <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1486" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1486" t="inlineStr"/>
-      <c r="D1486" t="inlineStr">
-        <is>
-          <t>0.999M</t>
-        </is>
-      </c>
-      <c r="E1486" t="inlineStr"/>
-      <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1487">
-      <c r="A1487" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1487" t="inlineStr"/>
-      <c r="D1487" t="inlineStr">
-        <is>
-          <t>2.373M</t>
-        </is>
-      </c>
-      <c r="E1487" t="inlineStr"/>
-      <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1488">
-      <c r="A1488" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1488" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1488" t="inlineStr"/>
-      <c r="D1488" t="inlineStr">
-        <is>
-          <t>0.164M</t>
-        </is>
-      </c>
-      <c r="E1488" t="inlineStr"/>
-      <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1489" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1489" t="inlineStr"/>
-      <c r="D1489" t="inlineStr">
-        <is>
-          <t>0.264M</t>
-        </is>
-      </c>
-      <c r="E1489" t="inlineStr"/>
-      <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1490" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1490" t="inlineStr"/>
-      <c r="D1490" t="inlineStr">
-        <is>
-          <t>0.062M</t>
-        </is>
-      </c>
-      <c r="E1490" t="inlineStr"/>
-      <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1491">
-      <c r="A1491" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1491" t="inlineStr"/>
-      <c r="D1491" t="inlineStr">
-        <is>
-          <t>0.209M</t>
-        </is>
-      </c>
-      <c r="E1491" t="inlineStr"/>
-      <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1492">
-      <c r="A1492" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1492" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1492" t="inlineStr"/>
-      <c r="D1492" t="inlineStr">
-        <is>
-          <t>-0.192M</t>
-        </is>
-      </c>
-      <c r="E1492" t="inlineStr"/>
-      <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1493">
-      <c r="A1493" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1493" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1493" t="inlineStr"/>
-      <c r="D1493" t="inlineStr"/>
-      <c r="E1493" t="inlineStr"/>
-      <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1494">
-      <c r="A1494" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1494" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1494" t="inlineStr"/>
-      <c r="D1494" t="inlineStr">
-        <is>
-          <t>4.310%</t>
-        </is>
-      </c>
-      <c r="E1494" t="inlineStr"/>
-      <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1495">
-      <c r="A1495" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1495" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="C1495" t="inlineStr"/>
-      <c r="D1495" t="inlineStr"/>
-      <c r="E1495" t="inlineStr"/>
-      <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1496">
-      <c r="A1496" t="inlineStr">
-        <is>
-          <t>Thursday April 10 2025</t>
-        </is>
-      </c>
-      <c r="B1496" t="inlineStr"/>
-      <c r="C1496" t="inlineStr"/>
-      <c r="D1496" t="inlineStr"/>
-      <c r="E1496" t="inlineStr"/>
-      <c r="F1496" t="inlineStr"/>
-      <c r="G1496" t="inlineStr"/>
-    </row>
-    <row r="1497">
-      <c r="A1497" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1497" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1497" t="inlineStr"/>
-      <c r="D1497" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1497" t="inlineStr"/>
-      <c r="F1497" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1497" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1498">
-      <c r="A1498" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1498" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1498" t="inlineStr"/>
-      <c r="D1498" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1498" t="inlineStr"/>
-      <c r="F1498" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="G1498" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1499">
-      <c r="A1499" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1499" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1499" t="inlineStr"/>
-      <c r="D1499" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1499" t="inlineStr"/>
-      <c r="F1499" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1499" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1500">
-      <c r="A1500" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1500" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1500" t="inlineStr"/>
-      <c r="D1500" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E1500" t="inlineStr"/>
-      <c r="F1500" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G1500" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1501">
-      <c r="A1501" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1501" t="inlineStr">
-        <is>
-          <t>CPIMAR</t>
-        </is>
-      </c>
-      <c r="C1501" t="inlineStr"/>
-      <c r="D1501" t="inlineStr">
-        <is>
-          <t>319.082</t>
-        </is>
-      </c>
-      <c r="E1501" t="inlineStr"/>
-      <c r="F1501" t="inlineStr">
-        <is>
-          <t>320.1</t>
-        </is>
-      </c>
-      <c r="G1501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1502">
-      <c r="A1502" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1502" t="inlineStr">
-        <is>
-          <t>CPI s.aMAR</t>
-        </is>
-      </c>
-      <c r="C1502" t="inlineStr"/>
-      <c r="D1502" t="inlineStr">
-        <is>
-          <t>319.775</t>
-        </is>
-      </c>
-      <c r="E1502" t="inlineStr"/>
-      <c r="F1502" t="inlineStr">
-        <is>
-          <t>320.1</t>
-        </is>
-      </c>
-      <c r="G1502" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1503">
-      <c r="A1503" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1503" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/05</t>
-        </is>
-      </c>
-      <c r="C1503" t="inlineStr"/>
-      <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
-      <c r="F1503" t="inlineStr">
-        <is>
-          <t>250K</t>
-        </is>
-      </c>
-      <c r="G1503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1504">
-      <c r="A1504" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1504" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/29</t>
-        </is>
-      </c>
-      <c r="C1504" t="inlineStr"/>
-      <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
-      <c r="F1504" t="inlineStr"/>
-      <c r="G1504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1505">
-      <c r="A1505" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1505" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/05</t>
-        </is>
-      </c>
-      <c r="C1505" t="inlineStr"/>
-      <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr"/>
-      <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1506">
-      <c r="A1506" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1506" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1506" t="inlineStr"/>
-      <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr"/>
-      <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1507">
-      <c r="A1507" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1507" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1507" t="inlineStr"/>
-      <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
-      <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1508">
-      <c r="A1508" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1508" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1508" t="inlineStr"/>
-      <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr"/>
-      <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1509">
-      <c r="A1509" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1509" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
-      <c r="C1509" t="inlineStr"/>
-      <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr"/>
-      <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/10</t>
-        </is>
-      </c>
-      <c r="C1510" t="inlineStr"/>
-      <c r="D1510" t="inlineStr"/>
-      <c r="E1510" t="inlineStr"/>
-      <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/10</t>
-        </is>
-      </c>
-      <c r="C1511" t="inlineStr"/>
-      <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr"/>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1512" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1512" t="inlineStr"/>
-      <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr"/>
-      <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1513" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1513" t="inlineStr"/>
-      <c r="D1513" t="inlineStr">
-        <is>
-          <t>4.623%</t>
-        </is>
-      </c>
-      <c r="E1513" t="inlineStr"/>
-      <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementMAR</t>
-        </is>
-      </c>
-      <c r="C1514" t="inlineStr"/>
-      <c r="D1514" t="inlineStr">
-        <is>
-          <t>$-307B</t>
-        </is>
-      </c>
-      <c r="E1514" t="inlineStr"/>
-      <c r="F1514" t="inlineStr">
-        <is>
-          <t>$-315.6B</t>
-        </is>
-      </c>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="inlineStr">
-        <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1515" t="inlineStr"/>
-      <c r="C1515" t="inlineStr"/>
-      <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr"/>
-      <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr"/>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1516" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/09</t>
-        </is>
-      </c>
-      <c r="C1516" t="inlineStr"/>
-      <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr"/>
-      <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr">
-        <is>
-          <t>PPI MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1517" t="inlineStr"/>
-      <c r="D1517" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1517" t="inlineStr"/>
-      <c r="F1517" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1517" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1518" t="inlineStr">
-        <is>
-          <t>Core PPI MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1518" t="inlineStr"/>
-      <c r="D1518" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1518" t="inlineStr"/>
-      <c r="F1518" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1519" t="inlineStr">
-        <is>
-          <t>Core PPI YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1519" t="inlineStr"/>
-      <c r="D1519" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1519" t="inlineStr"/>
-      <c r="F1519" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1520">
-      <c r="A1520" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1520" t="inlineStr">
-        <is>
-          <t>PPIMAR</t>
-        </is>
-      </c>
-      <c r="C1520" t="inlineStr"/>
-      <c r="D1520" t="inlineStr">
-        <is>
-          <t>147.953</t>
-        </is>
-      </c>
-      <c r="E1520" t="inlineStr"/>
-      <c r="F1520" t="inlineStr">
-        <is>
-          <t>147.8</t>
-        </is>
-      </c>
-      <c r="G1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1521">
-      <c r="A1521" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1521" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1521" t="inlineStr"/>
-      <c r="D1521" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1521" t="inlineStr"/>
-      <c r="F1521" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1522">
-      <c r="A1522" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1522" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1522" t="inlineStr"/>
-      <c r="D1522" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1522" t="inlineStr"/>
-      <c r="F1522" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1523">
-      <c r="A1523" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1523" t="inlineStr">
-        <is>
-          <t>PPI YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1523" t="inlineStr"/>
-      <c r="D1523" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E1523" t="inlineStr"/>
-      <c r="F1523" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1524" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1524" t="inlineStr"/>
-      <c r="D1524" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1524" t="inlineStr"/>
-      <c r="F1524" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1525" t="inlineStr"/>
-      <c r="D1525" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1525" t="inlineStr"/>
-      <c r="F1525" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1526" t="inlineStr"/>
-      <c r="D1526" t="inlineStr">
-        <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1526" t="inlineStr"/>
-      <c r="F1526" t="inlineStr">
-        <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="G1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1527" t="inlineStr"/>
-      <c r="D1527" t="inlineStr">
-        <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1527" t="inlineStr"/>
-      <c r="F1527" t="inlineStr">
-        <is>
-          <t>63.4</t>
-        </is>
-      </c>
-      <c r="G1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1528" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1528" t="inlineStr"/>
-      <c r="D1528" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E1528" t="inlineStr"/>
-      <c r="F1528" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
-        </is>
-      </c>
-      <c r="C1529" t="inlineStr"/>
-      <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr"/>
-      <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1530">
-      <c r="A1530" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
-        </is>
-      </c>
-      <c r="C1530" t="inlineStr"/>
-      <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr"/>
-      <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1531">
-      <c r="A1531" t="inlineStr">
-        <is>
-          <t>Saturday April 12 2025</t>
-        </is>
-      </c>
-      <c r="B1531" t="inlineStr"/>
-      <c r="C1531" t="inlineStr"/>
-      <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr"/>
-      <c r="F1531" t="inlineStr"/>
-      <c r="G1531" t="inlineStr"/>
+      <c r="D1452" t="inlineStr"/>
+      <c r="E1452" t="inlineStr"/>
+      <c r="F1452" t="inlineStr"/>
+      <c r="G1452" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-12.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1531"/>
+  <dimension ref="A1:G1452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39392,10 +39392,8 @@
       <c r="D1425" t="inlineStr"/>
       <c r="E1425" t="inlineStr"/>
       <c r="F1425" t="inlineStr"/>
-      <c r="G1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -39425,10 +39423,8 @@
           <t>190.0K</t>
         </is>
       </c>
-      <c r="G1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -39462,10 +39458,8 @@
           <t>$-122B</t>
         </is>
       </c>
-      <c r="G1427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1427" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1428">
@@ -39495,10 +39489,8 @@
           <t>$271B</t>
         </is>
       </c>
-      <c r="G1428" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1428" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1429">
@@ -39528,10 +39520,8 @@
           <t>$393B</t>
         </is>
       </c>
-      <c r="G1429" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1429" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1430">
@@ -39565,10 +39555,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1430" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1430" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1431">
@@ -39602,10 +39590,8 @@
           <t>1860.0K</t>
         </is>
       </c>
-      <c r="G1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -39635,10 +39621,8 @@
           <t>227.0K</t>
         </is>
       </c>
-      <c r="G1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -39672,10 +39656,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="G1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1434">
@@ -39709,10 +39691,8 @@
           <t>54.3</t>
         </is>
       </c>
-      <c r="G1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1435">
@@ -39746,10 +39726,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G1435" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1435" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1436">
@@ -39779,10 +39757,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="G1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1437">
@@ -39812,10 +39788,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G1437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1438">
@@ -39845,10 +39819,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="G1438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1439">
@@ -39878,10 +39850,8 @@
           <t>64</t>
         </is>
       </c>
-      <c r="G1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1440">
@@ -39907,10 +39877,8 @@
         </is>
       </c>
       <c r="F1440" t="inlineStr"/>
-      <c r="G1440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1441">
@@ -39932,10 +39900,8 @@
       </c>
       <c r="E1441" t="inlineStr"/>
       <c r="F1441" t="inlineStr"/>
-      <c r="G1441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1442">
@@ -39957,10 +39923,8 @@
       </c>
       <c r="E1442" t="inlineStr"/>
       <c r="F1442" t="inlineStr"/>
-      <c r="G1442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1443">
@@ -39982,10 +39946,8 @@
       </c>
       <c r="E1443" t="inlineStr"/>
       <c r="F1443" t="inlineStr"/>
-      <c r="G1443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1444">
@@ -40007,10 +39969,8 @@
       </c>
       <c r="E1444" t="inlineStr"/>
       <c r="F1444" t="inlineStr"/>
-      <c r="G1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -40028,10 +39988,8 @@
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr"/>
       <c r="F1445" t="inlineStr"/>
-      <c r="G1445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1445" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1446">
@@ -40045,65 +40003,91 @@
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr"/>
       <c r="F1446" t="inlineStr"/>
-      <c r="G1446" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1446" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>Friday April 04 2025</t>
-        </is>
-      </c>
-      <c r="B1447" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelAPR</t>
+        </is>
+      </c>
       <c r="C1447" t="inlineStr"/>
-      <c r="D1447" t="inlineStr"/>
+      <c r="D1447" t="inlineStr">
+        <is>
+          <t>52.6</t>
+        </is>
+      </c>
       <c r="E1447" t="inlineStr"/>
-      <c r="F1447" t="inlineStr"/>
-      <c r="G1447" t="inlineStr"/>
+      <c r="F1447" t="inlineStr">
+        <is>
+          <t>52.3</t>
+        </is>
+      </c>
+      <c r="G1447" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>Michigan Current Conditions PrelAPR</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr"/>
-      <c r="D1448" t="inlineStr"/>
+      <c r="D1448" t="inlineStr">
+        <is>
+          <t>63.8</t>
+        </is>
+      </c>
       <c r="E1448" t="inlineStr"/>
-      <c r="F1448" t="inlineStr"/>
+      <c r="F1448" t="inlineStr">
+        <is>
+          <t>63.4</t>
+        </is>
+      </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>Fed Balance SheetAPR/02</t>
+          <t>Michigan Inflation Expectations PrelAPR</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr"/>
       <c r="D1449" t="inlineStr">
         <is>
-          <t>$6.74T</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E1449" t="inlineStr"/>
-      <c r="F1449" t="inlineStr"/>
+      <c r="F1449" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="G1449" t="inlineStr">
         <is>
           <t>3</t>
@@ -40113,2076 +40097,57 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsMAR</t>
+          <t>Baker Hughes Oil Rig CountAPR/11</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr"/>
-      <c r="D1450" t="inlineStr">
-        <is>
-          <t>151K</t>
-        </is>
-      </c>
-      <c r="E1450" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
-      <c r="F1450" t="inlineStr">
-        <is>
-          <t>80.0K</t>
-        </is>
-      </c>
+      <c r="D1450" t="inlineStr"/>
+      <c r="E1450" t="inlineStr"/>
+      <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>Unemployment RateMAR</t>
+          <t>Baker Hughes Total Rigs CountAPR/11</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr"/>
-      <c r="D1451" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1451" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F1451" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="D1451" t="inlineStr"/>
+      <c r="E1451" t="inlineStr"/>
+      <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMMAR</t>
-        </is>
-      </c>
+          <t>Saturday April 12 2025</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr"/>
       <c r="C1452" t="inlineStr"/>
-      <c r="D1452" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1452" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1452" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1452" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1453">
-      <c r="A1453" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1453" t="inlineStr"/>
-      <c r="D1453" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E1453" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1453" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1454">
-      <c r="A1454" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr">
-        <is>
-          <t>Participation RateMAR</t>
-        </is>
-      </c>
-      <c r="C1454" t="inlineStr"/>
-      <c r="D1454" t="inlineStr">
-        <is>
-          <t>62.4%</t>
-        </is>
-      </c>
-      <c r="E1454" t="inlineStr"/>
-      <c r="F1454" t="inlineStr">
-        <is>
-          <t>62.4%</t>
-        </is>
-      </c>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1455">
-      <c r="A1455" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1455" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursMAR</t>
-        </is>
-      </c>
-      <c r="C1455" t="inlineStr"/>
-      <c r="D1455" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E1455" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1455" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1456">
-      <c r="A1456" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr">
-        <is>
-          <t>Government PayrollsMAR</t>
-        </is>
-      </c>
-      <c r="C1456" t="inlineStr"/>
-      <c r="D1456" t="inlineStr">
-        <is>
-          <t>11K</t>
-        </is>
-      </c>
-      <c r="E1456" t="inlineStr"/>
-      <c r="F1456" t="inlineStr">
-        <is>
-          <t>-50.0K</t>
-        </is>
-      </c>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1457">
-      <c r="A1457" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1457" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsMAR</t>
-        </is>
-      </c>
-      <c r="C1457" t="inlineStr"/>
-      <c r="D1457" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="E1457" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
-      <c r="F1457" t="inlineStr">
-        <is>
-          <t>1.0K</t>
-        </is>
-      </c>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1458">
-      <c r="A1458" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1458" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateMAR</t>
-        </is>
-      </c>
-      <c r="C1458" t="inlineStr"/>
-      <c r="D1458" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
-      <c r="E1458" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F1458" t="inlineStr">
-        <is>
-          <t>130.0K</t>
-        </is>
-      </c>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1459">
-      <c r="A1459" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1459" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateMAR</t>
-        </is>
-      </c>
-      <c r="C1459" t="inlineStr"/>
-      <c r="D1459" t="inlineStr">
-        <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="E1459" t="inlineStr"/>
-      <c r="F1459" t="inlineStr">
-        <is>
-          <t>8.1%</t>
-        </is>
-      </c>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1460">
-      <c r="A1460" t="inlineStr">
-        <is>
-          <t>08:55 PM</t>
-        </is>
-      </c>
-      <c r="B1460" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Speech</t>
-        </is>
-      </c>
-      <c r="C1460" t="inlineStr"/>
-      <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr"/>
-      <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1461">
-      <c r="A1461" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1461" t="inlineStr">
-        <is>
-          <t>Fed Barr Speech</t>
-        </is>
-      </c>
-      <c r="C1461" t="inlineStr"/>
-      <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr"/>
-      <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1462">
-      <c r="A1462" t="inlineStr">
-        <is>
-          <t>10:15 PM</t>
-        </is>
-      </c>
-      <c r="B1462" t="inlineStr">
-        <is>
-          <t>Fed Waller Speech</t>
-        </is>
-      </c>
-      <c r="C1462" t="inlineStr"/>
-      <c r="D1462" t="inlineStr"/>
-      <c r="E1462" t="inlineStr"/>
-      <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1463">
-      <c r="A1463" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1463" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/04</t>
-        </is>
-      </c>
-      <c r="C1463" t="inlineStr"/>
-      <c r="D1463" t="inlineStr">
-        <is>
-          <t>484</t>
-        </is>
-      </c>
-      <c r="E1463" t="inlineStr"/>
-      <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1464">
-      <c r="A1464" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1464" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/04</t>
-        </is>
-      </c>
-      <c r="C1464" t="inlineStr"/>
-      <c r="D1464" t="inlineStr">
-        <is>
-          <t>592</t>
-        </is>
-      </c>
-      <c r="E1464" t="inlineStr"/>
-      <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1465">
-      <c r="A1465" t="inlineStr">
-        <is>
-          <t>Saturday April 05 2025</t>
-        </is>
-      </c>
-      <c r="B1465" t="inlineStr"/>
-      <c r="C1465" t="inlineStr"/>
-      <c r="D1465" t="inlineStr"/>
-      <c r="E1465" t="inlineStr"/>
-      <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr"/>
-    </row>
-    <row r="1466">
-      <c r="A1466" t="inlineStr">
-        <is>
-          <t>Monday April 07 2025</t>
-        </is>
-      </c>
-      <c r="B1466" t="inlineStr"/>
-      <c r="C1466" t="inlineStr"/>
-      <c r="D1466" t="inlineStr"/>
-      <c r="E1466" t="inlineStr"/>
-      <c r="F1466" t="inlineStr"/>
-      <c r="G1466" t="inlineStr"/>
-    </row>
-    <row r="1467">
-      <c r="A1467" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1467" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1467" t="inlineStr"/>
-      <c r="D1467" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E1467" t="inlineStr"/>
-      <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1468">
-      <c r="A1468" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1468" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1468" t="inlineStr"/>
-      <c r="D1468" t="inlineStr">
-        <is>
-          <t>4.070%</t>
-        </is>
-      </c>
-      <c r="E1468" t="inlineStr"/>
-      <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1469">
-      <c r="A1469" t="inlineStr"/>
-      <c r="B1469" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1469" t="inlineStr"/>
-      <c r="D1469" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E1469" t="inlineStr"/>
-      <c r="F1469" t="inlineStr"/>
-      <c r="G1469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1470">
-      <c r="A1470" t="inlineStr"/>
-      <c r="B1470" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1470" t="inlineStr"/>
-      <c r="D1470" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1470" t="inlineStr"/>
-      <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1471">
-      <c r="A1471" t="inlineStr">
-        <is>
-          <t>Tuesday April 08 2025</t>
-        </is>
-      </c>
-      <c r="B1471" t="inlineStr"/>
-      <c r="C1471" t="inlineStr"/>
-      <c r="D1471" t="inlineStr"/>
-      <c r="E1471" t="inlineStr"/>
-      <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr"/>
-    </row>
-    <row r="1472">
-      <c r="A1472" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1472" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeFEB</t>
-        </is>
-      </c>
-      <c r="C1472" t="inlineStr"/>
-      <c r="D1472" t="inlineStr">
-        <is>
-          <t>$18.08B</t>
-        </is>
-      </c>
-      <c r="E1472" t="inlineStr"/>
-      <c r="F1472" t="inlineStr">
-        <is>
-          <t>$15.0B</t>
-        </is>
-      </c>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1473">
-      <c r="A1473" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1473" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1473" t="inlineStr"/>
-      <c r="D1473" t="inlineStr">
-        <is>
-          <t>100.7</t>
-        </is>
-      </c>
-      <c r="E1473" t="inlineStr"/>
-      <c r="F1473" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G1473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1474">
-      <c r="A1474" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B1474" t="inlineStr">
-        <is>
-          <t>Redbook YoYAPR/05</t>
-        </is>
-      </c>
-      <c r="C1474" t="inlineStr"/>
-      <c r="D1474" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="E1474" t="inlineStr"/>
-      <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1475">
-      <c r="A1475" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1475" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1475" t="inlineStr"/>
-      <c r="D1475" t="inlineStr">
-        <is>
-          <t>3.908%</t>
-        </is>
-      </c>
-      <c r="E1475" t="inlineStr"/>
-      <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1476">
-      <c r="A1476" t="inlineStr">
-        <is>
-          <t>Wednesday April 09 2025</t>
-        </is>
-      </c>
-      <c r="B1476" t="inlineStr"/>
-      <c r="C1476" t="inlineStr"/>
-      <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr"/>
-      <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr"/>
-    </row>
-    <row r="1477">
-      <c r="A1477" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1477" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1477" t="inlineStr"/>
-      <c r="D1477" t="inlineStr">
-        <is>
-          <t>6.037M</t>
-        </is>
-      </c>
-      <c r="E1477" t="inlineStr"/>
-      <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1478">
-      <c r="A1478" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1478" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateAPR/04</t>
-        </is>
-      </c>
-      <c r="C1478" t="inlineStr"/>
-      <c r="D1478" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="E1478" t="inlineStr"/>
-      <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1479">
-      <c r="A1479" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1479" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsAPR/04</t>
-        </is>
-      </c>
-      <c r="C1479" t="inlineStr"/>
-      <c r="D1479" t="inlineStr">
-        <is>
-          <t>-1.6%</t>
-        </is>
-      </c>
-      <c r="E1479" t="inlineStr"/>
-      <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1480">
-      <c r="A1480" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1480" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexAPR/04</t>
-        </is>
-      </c>
-      <c r="C1480" t="inlineStr"/>
-      <c r="D1480" t="inlineStr">
-        <is>
-          <t>243.6</t>
-        </is>
-      </c>
-      <c r="E1480" t="inlineStr"/>
-      <c r="F1480" t="inlineStr"/>
-      <c r="G1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1481">
-      <c r="A1481" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1481" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexAPR/04</t>
-        </is>
-      </c>
-      <c r="C1481" t="inlineStr"/>
-      <c r="D1481" t="inlineStr">
-        <is>
-          <t>710.4</t>
-        </is>
-      </c>
-      <c r="E1481" t="inlineStr"/>
-      <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1482">
-      <c r="A1482" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1482" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexAPR/04</t>
-        </is>
-      </c>
-      <c r="C1482" t="inlineStr"/>
-      <c r="D1482" t="inlineStr">
-        <is>
-          <t>158.2</t>
-        </is>
-      </c>
-      <c r="E1482" t="inlineStr"/>
-      <c r="F1482" t="inlineStr"/>
-      <c r="G1482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1483">
-      <c r="A1483" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1483" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1483" t="inlineStr"/>
-      <c r="D1483" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1483" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1483" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1484">
-      <c r="A1484" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1484" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1484" t="inlineStr"/>
-      <c r="D1484" t="inlineStr">
-        <is>
-          <t>6.165M</t>
-        </is>
-      </c>
-      <c r="E1484" t="inlineStr"/>
-      <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1485">
-      <c r="A1485" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1485" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1485" t="inlineStr"/>
-      <c r="D1485" t="inlineStr">
-        <is>
-          <t>-1.551M</t>
-        </is>
-      </c>
-      <c r="E1485" t="inlineStr"/>
-      <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1486" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1486" t="inlineStr"/>
-      <c r="D1486" t="inlineStr">
-        <is>
-          <t>0.999M</t>
-        </is>
-      </c>
-      <c r="E1486" t="inlineStr"/>
-      <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1487">
-      <c r="A1487" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1487" t="inlineStr"/>
-      <c r="D1487" t="inlineStr">
-        <is>
-          <t>2.373M</t>
-        </is>
-      </c>
-      <c r="E1487" t="inlineStr"/>
-      <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1488">
-      <c r="A1488" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1488" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1488" t="inlineStr"/>
-      <c r="D1488" t="inlineStr">
-        <is>
-          <t>0.164M</t>
-        </is>
-      </c>
-      <c r="E1488" t="inlineStr"/>
-      <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1489" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1489" t="inlineStr"/>
-      <c r="D1489" t="inlineStr">
-        <is>
-          <t>0.264M</t>
-        </is>
-      </c>
-      <c r="E1489" t="inlineStr"/>
-      <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1490" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1490" t="inlineStr"/>
-      <c r="D1490" t="inlineStr">
-        <is>
-          <t>0.062M</t>
-        </is>
-      </c>
-      <c r="E1490" t="inlineStr"/>
-      <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1491">
-      <c r="A1491" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1491" t="inlineStr"/>
-      <c r="D1491" t="inlineStr">
-        <is>
-          <t>0.209M</t>
-        </is>
-      </c>
-      <c r="E1491" t="inlineStr"/>
-      <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1492">
-      <c r="A1492" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1492" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1492" t="inlineStr"/>
-      <c r="D1492" t="inlineStr">
-        <is>
-          <t>-0.192M</t>
-        </is>
-      </c>
-      <c r="E1492" t="inlineStr"/>
-      <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1493">
-      <c r="A1493" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1493" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1493" t="inlineStr"/>
-      <c r="D1493" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E1493" t="inlineStr"/>
-      <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1494">
-      <c r="A1494" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1494" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1494" t="inlineStr"/>
-      <c r="D1494" t="inlineStr">
-        <is>
-          <t>4.310%</t>
-        </is>
-      </c>
-      <c r="E1494" t="inlineStr"/>
-      <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1495">
-      <c r="A1495" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1495" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="C1495" t="inlineStr"/>
-      <c r="D1495" t="inlineStr"/>
-      <c r="E1495" t="inlineStr"/>
-      <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1496">
-      <c r="A1496" t="inlineStr">
-        <is>
-          <t>Thursday April 10 2025</t>
-        </is>
-      </c>
-      <c r="B1496" t="inlineStr"/>
-      <c r="C1496" t="inlineStr"/>
-      <c r="D1496" t="inlineStr"/>
-      <c r="E1496" t="inlineStr"/>
-      <c r="F1496" t="inlineStr"/>
-      <c r="G1496" t="inlineStr"/>
-    </row>
-    <row r="1497">
-      <c r="A1497" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1497" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1497" t="inlineStr"/>
-      <c r="D1497" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1497" t="inlineStr"/>
-      <c r="F1497" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1497" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1498">
-      <c r="A1498" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1498" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1498" t="inlineStr"/>
-      <c r="D1498" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1498" t="inlineStr"/>
-      <c r="F1498" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="G1498" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1499">
-      <c r="A1499" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1499" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1499" t="inlineStr"/>
-      <c r="D1499" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1499" t="inlineStr"/>
-      <c r="F1499" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1499" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1500">
-      <c r="A1500" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1500" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1500" t="inlineStr"/>
-      <c r="D1500" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E1500" t="inlineStr"/>
-      <c r="F1500" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G1500" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1501">
-      <c r="A1501" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1501" t="inlineStr">
-        <is>
-          <t>CPIMAR</t>
-        </is>
-      </c>
-      <c r="C1501" t="inlineStr"/>
-      <c r="D1501" t="inlineStr">
-        <is>
-          <t>319.082</t>
-        </is>
-      </c>
-      <c r="E1501" t="inlineStr"/>
-      <c r="F1501" t="inlineStr">
-        <is>
-          <t>320.1</t>
-        </is>
-      </c>
-      <c r="G1501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1502">
-      <c r="A1502" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1502" t="inlineStr">
-        <is>
-          <t>CPI s.aMAR</t>
-        </is>
-      </c>
-      <c r="C1502" t="inlineStr"/>
-      <c r="D1502" t="inlineStr">
-        <is>
-          <t>319.775</t>
-        </is>
-      </c>
-      <c r="E1502" t="inlineStr"/>
-      <c r="F1502" t="inlineStr">
-        <is>
-          <t>320.1</t>
-        </is>
-      </c>
-      <c r="G1502" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1503">
-      <c r="A1503" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1503" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/05</t>
-        </is>
-      </c>
-      <c r="C1503" t="inlineStr"/>
-      <c r="D1503" t="inlineStr">
-        <is>
-          <t>219K</t>
-        </is>
-      </c>
-      <c r="E1503" t="inlineStr"/>
-      <c r="F1503" t="inlineStr">
-        <is>
-          <t>226.0K</t>
-        </is>
-      </c>
-      <c r="G1503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1504">
-      <c r="A1504" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1504" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/29</t>
-        </is>
-      </c>
-      <c r="C1504" t="inlineStr"/>
-      <c r="D1504" t="inlineStr">
-        <is>
-          <t>1903K</t>
-        </is>
-      </c>
-      <c r="E1504" t="inlineStr"/>
-      <c r="F1504" t="inlineStr">
-        <is>
-          <t>1915.0K</t>
-        </is>
-      </c>
-      <c r="G1504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1505">
-      <c r="A1505" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1505" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/05</t>
-        </is>
-      </c>
-      <c r="C1505" t="inlineStr"/>
-      <c r="D1505" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E1505" t="inlineStr"/>
-      <c r="F1505" t="inlineStr">
-        <is>
-          <t>226.0K</t>
-        </is>
-      </c>
-      <c r="G1505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1506">
-      <c r="A1506" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1506" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1506" t="inlineStr"/>
-      <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr"/>
-      <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1507">
-      <c r="A1507" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1507" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1507" t="inlineStr"/>
-      <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
-      <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1508">
-      <c r="A1508" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1508" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1508" t="inlineStr"/>
-      <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr"/>
-      <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1509">
-      <c r="A1509" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1509" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
-      <c r="C1509" t="inlineStr"/>
-      <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr"/>
-      <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/10</t>
-        </is>
-      </c>
-      <c r="C1510" t="inlineStr"/>
-      <c r="D1510" t="inlineStr"/>
-      <c r="E1510" t="inlineStr"/>
-      <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/10</t>
-        </is>
-      </c>
-      <c r="C1511" t="inlineStr"/>
-      <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr"/>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1512" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1512" t="inlineStr"/>
-      <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr"/>
-      <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1513" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1513" t="inlineStr"/>
-      <c r="D1513" t="inlineStr">
-        <is>
-          <t>4.623%</t>
-        </is>
-      </c>
-      <c r="E1513" t="inlineStr"/>
-      <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementMAR</t>
-        </is>
-      </c>
-      <c r="C1514" t="inlineStr"/>
-      <c r="D1514" t="inlineStr">
-        <is>
-          <t>$-307B</t>
-        </is>
-      </c>
-      <c r="E1514" t="inlineStr"/>
-      <c r="F1514" t="inlineStr">
-        <is>
-          <t>$-315.6B</t>
-        </is>
-      </c>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="inlineStr">
-        <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1515" t="inlineStr"/>
-      <c r="C1515" t="inlineStr"/>
-      <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr"/>
-      <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr"/>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1516" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/09</t>
-        </is>
-      </c>
-      <c r="C1516" t="inlineStr"/>
-      <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr"/>
-      <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr">
-        <is>
-          <t>PPI MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1517" t="inlineStr"/>
-      <c r="D1517" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1517" t="inlineStr"/>
-      <c r="F1517" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1517" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1518" t="inlineStr">
-        <is>
-          <t>Core PPI MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1518" t="inlineStr"/>
-      <c r="D1518" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1518" t="inlineStr"/>
-      <c r="F1518" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1519" t="inlineStr">
-        <is>
-          <t>Core PPI YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1519" t="inlineStr"/>
-      <c r="D1519" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1519" t="inlineStr"/>
-      <c r="F1519" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1520">
-      <c r="A1520" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1520" t="inlineStr">
-        <is>
-          <t>PPIMAR</t>
-        </is>
-      </c>
-      <c r="C1520" t="inlineStr"/>
-      <c r="D1520" t="inlineStr">
-        <is>
-          <t>147.953</t>
-        </is>
-      </c>
-      <c r="E1520" t="inlineStr"/>
-      <c r="F1520" t="inlineStr">
-        <is>
-          <t>147.8</t>
-        </is>
-      </c>
-      <c r="G1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1521">
-      <c r="A1521" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1521" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1521" t="inlineStr"/>
-      <c r="D1521" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1521" t="inlineStr"/>
-      <c r="F1521" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1522">
-      <c r="A1522" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1522" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1522" t="inlineStr"/>
-      <c r="D1522" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1522" t="inlineStr"/>
-      <c r="F1522" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1523">
-      <c r="A1523" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1523" t="inlineStr">
-        <is>
-          <t>PPI YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1523" t="inlineStr"/>
-      <c r="D1523" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E1523" t="inlineStr"/>
-      <c r="F1523" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1524" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1524" t="inlineStr"/>
-      <c r="D1524" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1524" t="inlineStr"/>
-      <c r="F1524" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1525" t="inlineStr"/>
-      <c r="D1525" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1525" t="inlineStr"/>
-      <c r="F1525" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1526" t="inlineStr"/>
-      <c r="D1526" t="inlineStr">
-        <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1526" t="inlineStr"/>
-      <c r="F1526" t="inlineStr">
-        <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="G1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1527" t="inlineStr"/>
-      <c r="D1527" t="inlineStr">
-        <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1527" t="inlineStr"/>
-      <c r="F1527" t="inlineStr">
-        <is>
-          <t>63.4</t>
-        </is>
-      </c>
-      <c r="G1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1528" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1528" t="inlineStr"/>
-      <c r="D1528" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E1528" t="inlineStr"/>
-      <c r="F1528" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
-        </is>
-      </c>
-      <c r="C1529" t="inlineStr"/>
-      <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr"/>
-      <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1530">
-      <c r="A1530" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
-        </is>
-      </c>
-      <c r="C1530" t="inlineStr"/>
-      <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr"/>
-      <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1531">
-      <c r="A1531" t="inlineStr">
-        <is>
-          <t>Saturday April 12 2025</t>
-        </is>
-      </c>
-      <c r="B1531" t="inlineStr"/>
-      <c r="C1531" t="inlineStr"/>
-      <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr"/>
-      <c r="F1531" t="inlineStr"/>
-      <c r="G1531" t="inlineStr"/>
+      <c r="D1452" t="inlineStr"/>
+      <c r="E1452" t="inlineStr"/>
+      <c r="F1452" t="inlineStr"/>
+      <c r="G1452" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-12.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-04-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1531"/>
+  <dimension ref="A1:G1452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39392,10 +39392,8 @@
       <c r="D1425" t="inlineStr"/>
       <c r="E1425" t="inlineStr"/>
       <c r="F1425" t="inlineStr"/>
-      <c r="G1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -39425,10 +39423,8 @@
           <t>190.0K</t>
         </is>
       </c>
-      <c r="G1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -39462,10 +39458,8 @@
           <t>$-122B</t>
         </is>
       </c>
-      <c r="G1427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1427" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1428">
@@ -39495,10 +39489,8 @@
           <t>$271B</t>
         </is>
       </c>
-      <c r="G1428" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1428" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1429">
@@ -39528,10 +39520,8 @@
           <t>$393B</t>
         </is>
       </c>
-      <c r="G1429" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1429" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1430">
@@ -39565,10 +39555,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1430" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1430" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1431">
@@ -39602,10 +39590,8 @@
           <t>1860.0K</t>
         </is>
       </c>
-      <c r="G1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -39635,10 +39621,8 @@
           <t>227.0K</t>
         </is>
       </c>
-      <c r="G1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -39672,10 +39656,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="G1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1434">
@@ -39709,10 +39691,8 @@
           <t>54.3</t>
         </is>
       </c>
-      <c r="G1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1435">
@@ -39746,10 +39726,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G1435" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1435" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1436">
@@ -39779,10 +39757,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="G1436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1437">
@@ -39812,10 +39788,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="G1437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1438">
@@ -39845,10 +39819,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="G1438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1439">
@@ -39878,10 +39850,8 @@
           <t>64</t>
         </is>
       </c>
-      <c r="G1439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1440">
@@ -39911,10 +39881,8 @@
         </is>
       </c>
       <c r="F1440" t="inlineStr"/>
-      <c r="G1440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1441">
@@ -39940,10 +39908,8 @@
       </c>
       <c r="E1441" t="inlineStr"/>
       <c r="F1441" t="inlineStr"/>
-      <c r="G1441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1442">
@@ -39969,10 +39935,8 @@
       </c>
       <c r="E1442" t="inlineStr"/>
       <c r="F1442" t="inlineStr"/>
-      <c r="G1442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1443">
@@ -39998,10 +39962,8 @@
       </c>
       <c r="E1443" t="inlineStr"/>
       <c r="F1443" t="inlineStr"/>
-      <c r="G1443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1444">
@@ -40027,10 +39989,8 @@
       </c>
       <c r="E1444" t="inlineStr"/>
       <c r="F1444" t="inlineStr"/>
-      <c r="G1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -40048,10 +40008,8 @@
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr"/>
       <c r="F1445" t="inlineStr"/>
-      <c r="G1445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1445" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1446">
@@ -40065,65 +40023,91 @@
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr"/>
       <c r="F1446" t="inlineStr"/>
-      <c r="G1446" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1446" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>Friday April 04 2025</t>
-        </is>
-      </c>
-      <c r="B1447" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelAPR</t>
+        </is>
+      </c>
       <c r="C1447" t="inlineStr"/>
-      <c r="D1447" t="inlineStr"/>
+      <c r="D1447" t="inlineStr">
+        <is>
+          <t>52.6</t>
+        </is>
+      </c>
       <c r="E1447" t="inlineStr"/>
-      <c r="F1447" t="inlineStr"/>
-      <c r="G1447" t="inlineStr"/>
+      <c r="F1447" t="inlineStr">
+        <is>
+          <t>52.3</t>
+        </is>
+      </c>
+      <c r="G1447" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>Michigan Current Conditions PrelAPR</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr"/>
-      <c r="D1448" t="inlineStr"/>
+      <c r="D1448" t="inlineStr">
+        <is>
+          <t>63.8</t>
+        </is>
+      </c>
       <c r="E1448" t="inlineStr"/>
-      <c r="F1448" t="inlineStr"/>
+      <c r="F1448" t="inlineStr">
+        <is>
+          <t>63.4</t>
+        </is>
+      </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>Fed Balance SheetAPR/02</t>
+          <t>Michigan Inflation Expectations PrelAPR</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr"/>
       <c r="D1449" t="inlineStr">
         <is>
-          <t>$6.74T</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E1449" t="inlineStr"/>
-      <c r="F1449" t="inlineStr"/>
+      <c r="F1449" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
       <c r="G1449" t="inlineStr">
         <is>
           <t>3</t>
@@ -40133,2088 +40117,57 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsMAR</t>
+          <t>Baker Hughes Oil Rig CountAPR/11</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr"/>
-      <c r="D1450" t="inlineStr">
-        <is>
-          <t>151K</t>
-        </is>
-      </c>
-      <c r="E1450" t="inlineStr">
-        <is>
-          <t>135K</t>
-        </is>
-      </c>
-      <c r="F1450" t="inlineStr">
-        <is>
-          <t>100.0K</t>
-        </is>
-      </c>
+      <c r="D1450" t="inlineStr"/>
+      <c r="E1450" t="inlineStr"/>
+      <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>Unemployment RateMAR</t>
+          <t>Baker Hughes Total Rigs CountAPR/11</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr"/>
-      <c r="D1451" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1451" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F1451" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="D1451" t="inlineStr"/>
+      <c r="E1451" t="inlineStr"/>
+      <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMMAR</t>
-        </is>
-      </c>
+          <t>Saturday April 12 2025</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr"/>
       <c r="C1452" t="inlineStr"/>
-      <c r="D1452" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1452" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1452" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1452" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1453">
-      <c r="A1453" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1453" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1453" t="inlineStr"/>
-      <c r="D1453" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E1453" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1453" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1454">
-      <c r="A1454" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr">
-        <is>
-          <t>Participation RateMAR</t>
-        </is>
-      </c>
-      <c r="C1454" t="inlineStr"/>
-      <c r="D1454" t="inlineStr">
-        <is>
-          <t>62.4%</t>
-        </is>
-      </c>
-      <c r="E1454" t="inlineStr"/>
-      <c r="F1454" t="inlineStr">
-        <is>
-          <t>62.4%</t>
-        </is>
-      </c>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1455">
-      <c r="A1455" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1455" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursMAR</t>
-        </is>
-      </c>
-      <c r="C1455" t="inlineStr"/>
-      <c r="D1455" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E1455" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1455" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1456">
-      <c r="A1456" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr">
-        <is>
-          <t>Government PayrollsMAR</t>
-        </is>
-      </c>
-      <c r="C1456" t="inlineStr"/>
-      <c r="D1456" t="inlineStr">
-        <is>
-          <t>11K</t>
-        </is>
-      </c>
-      <c r="E1456" t="inlineStr"/>
-      <c r="F1456" t="inlineStr">
-        <is>
-          <t>-5.0K</t>
-        </is>
-      </c>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1457">
-      <c r="A1457" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1457" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsMAR</t>
-        </is>
-      </c>
-      <c r="C1457" t="inlineStr"/>
-      <c r="D1457" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="E1457" t="inlineStr">
-        <is>
-          <t>4K</t>
-        </is>
-      </c>
-      <c r="F1457" t="inlineStr">
-        <is>
-          <t>1.0K</t>
-        </is>
-      </c>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1458">
-      <c r="A1458" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1458" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateMAR</t>
-        </is>
-      </c>
-      <c r="C1458" t="inlineStr"/>
-      <c r="D1458" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
-      <c r="E1458" t="inlineStr">
-        <is>
-          <t>127K</t>
-        </is>
-      </c>
-      <c r="F1458" t="inlineStr">
-        <is>
-          <t>105.0K</t>
-        </is>
-      </c>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1459">
-      <c r="A1459" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1459" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateMAR</t>
-        </is>
-      </c>
-      <c r="C1459" t="inlineStr"/>
-      <c r="D1459" t="inlineStr">
-        <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="E1459" t="inlineStr"/>
-      <c r="F1459" t="inlineStr">
-        <is>
-          <t>8.1%</t>
-        </is>
-      </c>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1460">
-      <c r="A1460" t="inlineStr">
-        <is>
-          <t>08:55 PM</t>
-        </is>
-      </c>
-      <c r="B1460" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Speech</t>
-        </is>
-      </c>
-      <c r="C1460" t="inlineStr"/>
-      <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr"/>
-      <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1461">
-      <c r="A1461" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1461" t="inlineStr">
-        <is>
-          <t>Fed Barr Speech</t>
-        </is>
-      </c>
-      <c r="C1461" t="inlineStr"/>
-      <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr"/>
-      <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1462">
-      <c r="A1462" t="inlineStr">
-        <is>
-          <t>10:15 PM</t>
-        </is>
-      </c>
-      <c r="B1462" t="inlineStr">
-        <is>
-          <t>Fed Waller Speech</t>
-        </is>
-      </c>
-      <c r="C1462" t="inlineStr"/>
-      <c r="D1462" t="inlineStr"/>
-      <c r="E1462" t="inlineStr"/>
-      <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1463">
-      <c r="A1463" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1463" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/04</t>
-        </is>
-      </c>
-      <c r="C1463" t="inlineStr"/>
-      <c r="D1463" t="inlineStr">
-        <is>
-          <t>484</t>
-        </is>
-      </c>
-      <c r="E1463" t="inlineStr"/>
-      <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1464">
-      <c r="A1464" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1464" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/04</t>
-        </is>
-      </c>
-      <c r="C1464" t="inlineStr"/>
-      <c r="D1464" t="inlineStr">
-        <is>
-          <t>592</t>
-        </is>
-      </c>
-      <c r="E1464" t="inlineStr"/>
-      <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1465">
-      <c r="A1465" t="inlineStr">
-        <is>
-          <t>Saturday April 05 2025</t>
-        </is>
-      </c>
-      <c r="B1465" t="inlineStr"/>
-      <c r="C1465" t="inlineStr"/>
-      <c r="D1465" t="inlineStr"/>
-      <c r="E1465" t="inlineStr"/>
-      <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr"/>
-    </row>
-    <row r="1466">
-      <c r="A1466" t="inlineStr">
-        <is>
-          <t>Monday April 07 2025</t>
-        </is>
-      </c>
-      <c r="B1466" t="inlineStr"/>
-      <c r="C1466" t="inlineStr"/>
-      <c r="D1466" t="inlineStr"/>
-      <c r="E1466" t="inlineStr"/>
-      <c r="F1466" t="inlineStr"/>
-      <c r="G1466" t="inlineStr"/>
-    </row>
-    <row r="1467">
-      <c r="A1467" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1467" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1467" t="inlineStr"/>
-      <c r="D1467" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E1467" t="inlineStr"/>
-      <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1468">
-      <c r="A1468" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1468" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1468" t="inlineStr"/>
-      <c r="D1468" t="inlineStr">
-        <is>
-          <t>4.070%</t>
-        </is>
-      </c>
-      <c r="E1468" t="inlineStr"/>
-      <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1469">
-      <c r="A1469" t="inlineStr"/>
-      <c r="B1469" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1469" t="inlineStr"/>
-      <c r="D1469" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E1469" t="inlineStr"/>
-      <c r="F1469" t="inlineStr"/>
-      <c r="G1469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1470">
-      <c r="A1470" t="inlineStr"/>
-      <c r="B1470" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1470" t="inlineStr"/>
-      <c r="D1470" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1470" t="inlineStr"/>
-      <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1471">
-      <c r="A1471" t="inlineStr">
-        <is>
-          <t>Tuesday April 08 2025</t>
-        </is>
-      </c>
-      <c r="B1471" t="inlineStr"/>
-      <c r="C1471" t="inlineStr"/>
-      <c r="D1471" t="inlineStr"/>
-      <c r="E1471" t="inlineStr"/>
-      <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr"/>
-    </row>
-    <row r="1472">
-      <c r="A1472" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B1472" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeFEB</t>
-        </is>
-      </c>
-      <c r="C1472" t="inlineStr"/>
-      <c r="D1472" t="inlineStr">
-        <is>
-          <t>$18.08B</t>
-        </is>
-      </c>
-      <c r="E1472" t="inlineStr"/>
-      <c r="F1472" t="inlineStr">
-        <is>
-          <t>$15.0B</t>
-        </is>
-      </c>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1473">
-      <c r="A1473" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1473" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1473" t="inlineStr"/>
-      <c r="D1473" t="inlineStr">
-        <is>
-          <t>100.7</t>
-        </is>
-      </c>
-      <c r="E1473" t="inlineStr"/>
-      <c r="F1473" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G1473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1474">
-      <c r="A1474" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B1474" t="inlineStr">
-        <is>
-          <t>Redbook YoYAPR/05</t>
-        </is>
-      </c>
-      <c r="C1474" t="inlineStr"/>
-      <c r="D1474" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="E1474" t="inlineStr"/>
-      <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1475">
-      <c r="A1475" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1475" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1475" t="inlineStr"/>
-      <c r="D1475" t="inlineStr">
-        <is>
-          <t>3.908%</t>
-        </is>
-      </c>
-      <c r="E1475" t="inlineStr"/>
-      <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1476">
-      <c r="A1476" t="inlineStr">
-        <is>
-          <t>Wednesday April 09 2025</t>
-        </is>
-      </c>
-      <c r="B1476" t="inlineStr"/>
-      <c r="C1476" t="inlineStr"/>
-      <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr"/>
-      <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr"/>
-    </row>
-    <row r="1477">
-      <c r="A1477" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1477" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1477" t="inlineStr"/>
-      <c r="D1477" t="inlineStr">
-        <is>
-          <t>6.037M</t>
-        </is>
-      </c>
-      <c r="E1477" t="inlineStr"/>
-      <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1478">
-      <c r="A1478" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1478" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateAPR/04</t>
-        </is>
-      </c>
-      <c r="C1478" t="inlineStr"/>
-      <c r="D1478" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="E1478" t="inlineStr"/>
-      <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1479">
-      <c r="A1479" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1479" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsAPR/04</t>
-        </is>
-      </c>
-      <c r="C1479" t="inlineStr"/>
-      <c r="D1479" t="inlineStr">
-        <is>
-          <t>-1.6%</t>
-        </is>
-      </c>
-      <c r="E1479" t="inlineStr"/>
-      <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1480">
-      <c r="A1480" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1480" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexAPR/04</t>
-        </is>
-      </c>
-      <c r="C1480" t="inlineStr"/>
-      <c r="D1480" t="inlineStr">
-        <is>
-          <t>243.6</t>
-        </is>
-      </c>
-      <c r="E1480" t="inlineStr"/>
-      <c r="F1480" t="inlineStr"/>
-      <c r="G1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1481">
-      <c r="A1481" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1481" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexAPR/04</t>
-        </is>
-      </c>
-      <c r="C1481" t="inlineStr"/>
-      <c r="D1481" t="inlineStr">
-        <is>
-          <t>710.4</t>
-        </is>
-      </c>
-      <c r="E1481" t="inlineStr"/>
-      <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1482">
-      <c r="A1482" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1482" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexAPR/04</t>
-        </is>
-      </c>
-      <c r="C1482" t="inlineStr"/>
-      <c r="D1482" t="inlineStr">
-        <is>
-          <t>158.2</t>
-        </is>
-      </c>
-      <c r="E1482" t="inlineStr"/>
-      <c r="F1482" t="inlineStr"/>
-      <c r="G1482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1483">
-      <c r="A1483" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1483" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1483" t="inlineStr"/>
-      <c r="D1483" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1483" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1483" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1484">
-      <c r="A1484" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1484" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1484" t="inlineStr"/>
-      <c r="D1484" t="inlineStr">
-        <is>
-          <t>6.165M</t>
-        </is>
-      </c>
-      <c r="E1484" t="inlineStr"/>
-      <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1485">
-      <c r="A1485" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1485" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1485" t="inlineStr"/>
-      <c r="D1485" t="inlineStr">
-        <is>
-          <t>-1.551M</t>
-        </is>
-      </c>
-      <c r="E1485" t="inlineStr"/>
-      <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1486" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1486" t="inlineStr"/>
-      <c r="D1486" t="inlineStr">
-        <is>
-          <t>0.999M</t>
-        </is>
-      </c>
-      <c r="E1486" t="inlineStr"/>
-      <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1487">
-      <c r="A1487" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1487" t="inlineStr"/>
-      <c r="D1487" t="inlineStr">
-        <is>
-          <t>2.373M</t>
-        </is>
-      </c>
-      <c r="E1487" t="inlineStr"/>
-      <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1488">
-      <c r="A1488" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1488" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1488" t="inlineStr"/>
-      <c r="D1488" t="inlineStr">
-        <is>
-          <t>0.164M</t>
-        </is>
-      </c>
-      <c r="E1488" t="inlineStr"/>
-      <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1489" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1489" t="inlineStr"/>
-      <c r="D1489" t="inlineStr">
-        <is>
-          <t>0.264M</t>
-        </is>
-      </c>
-      <c r="E1489" t="inlineStr"/>
-      <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1490" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1490" t="inlineStr"/>
-      <c r="D1490" t="inlineStr">
-        <is>
-          <t>0.062M</t>
-        </is>
-      </c>
-      <c r="E1490" t="inlineStr"/>
-      <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1491">
-      <c r="A1491" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1491" t="inlineStr"/>
-      <c r="D1491" t="inlineStr">
-        <is>
-          <t>0.209M</t>
-        </is>
-      </c>
-      <c r="E1491" t="inlineStr"/>
-      <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1492">
-      <c r="A1492" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1492" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1492" t="inlineStr"/>
-      <c r="D1492" t="inlineStr">
-        <is>
-          <t>-0.192M</t>
-        </is>
-      </c>
-      <c r="E1492" t="inlineStr"/>
-      <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1493">
-      <c r="A1493" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1493" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1493" t="inlineStr"/>
-      <c r="D1493" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E1493" t="inlineStr"/>
-      <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1494">
-      <c r="A1494" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1494" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1494" t="inlineStr"/>
-      <c r="D1494" t="inlineStr">
-        <is>
-          <t>4.310%</t>
-        </is>
-      </c>
-      <c r="E1494" t="inlineStr"/>
-      <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1495">
-      <c r="A1495" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1495" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="C1495" t="inlineStr"/>
-      <c r="D1495" t="inlineStr"/>
-      <c r="E1495" t="inlineStr"/>
-      <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1496">
-      <c r="A1496" t="inlineStr">
-        <is>
-          <t>Thursday April 10 2025</t>
-        </is>
-      </c>
-      <c r="B1496" t="inlineStr"/>
-      <c r="C1496" t="inlineStr"/>
-      <c r="D1496" t="inlineStr"/>
-      <c r="E1496" t="inlineStr"/>
-      <c r="F1496" t="inlineStr"/>
-      <c r="G1496" t="inlineStr"/>
-    </row>
-    <row r="1497">
-      <c r="A1497" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1497" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1497" t="inlineStr"/>
-      <c r="D1497" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1497" t="inlineStr"/>
-      <c r="F1497" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1497" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1498">
-      <c r="A1498" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1498" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1498" t="inlineStr"/>
-      <c r="D1498" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1498" t="inlineStr"/>
-      <c r="F1498" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="G1498" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1499">
-      <c r="A1499" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1499" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1499" t="inlineStr"/>
-      <c r="D1499" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1499" t="inlineStr"/>
-      <c r="F1499" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1499" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1500">
-      <c r="A1500" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1500" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1500" t="inlineStr"/>
-      <c r="D1500" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E1500" t="inlineStr"/>
-      <c r="F1500" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G1500" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1501">
-      <c r="A1501" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1501" t="inlineStr">
-        <is>
-          <t>CPIMAR</t>
-        </is>
-      </c>
-      <c r="C1501" t="inlineStr"/>
-      <c r="D1501" t="inlineStr">
-        <is>
-          <t>319.082</t>
-        </is>
-      </c>
-      <c r="E1501" t="inlineStr"/>
-      <c r="F1501" t="inlineStr">
-        <is>
-          <t>320.1</t>
-        </is>
-      </c>
-      <c r="G1501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1502">
-      <c r="A1502" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1502" t="inlineStr">
-        <is>
-          <t>CPI s.aMAR</t>
-        </is>
-      </c>
-      <c r="C1502" t="inlineStr"/>
-      <c r="D1502" t="inlineStr">
-        <is>
-          <t>319.775</t>
-        </is>
-      </c>
-      <c r="E1502" t="inlineStr"/>
-      <c r="F1502" t="inlineStr">
-        <is>
-          <t>320.1</t>
-        </is>
-      </c>
-      <c r="G1502" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1503">
-      <c r="A1503" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1503" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/05</t>
-        </is>
-      </c>
-      <c r="C1503" t="inlineStr"/>
-      <c r="D1503" t="inlineStr">
-        <is>
-          <t>219K</t>
-        </is>
-      </c>
-      <c r="E1503" t="inlineStr"/>
-      <c r="F1503" t="inlineStr">
-        <is>
-          <t>226.0K</t>
-        </is>
-      </c>
-      <c r="G1503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1504">
-      <c r="A1504" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1504" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/29</t>
-        </is>
-      </c>
-      <c r="C1504" t="inlineStr"/>
-      <c r="D1504" t="inlineStr">
-        <is>
-          <t>1903K</t>
-        </is>
-      </c>
-      <c r="E1504" t="inlineStr"/>
-      <c r="F1504" t="inlineStr">
-        <is>
-          <t>1915.0K</t>
-        </is>
-      </c>
-      <c r="G1504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1505">
-      <c r="A1505" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1505" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/05</t>
-        </is>
-      </c>
-      <c r="C1505" t="inlineStr"/>
-      <c r="D1505" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E1505" t="inlineStr"/>
-      <c r="F1505" t="inlineStr">
-        <is>
-          <t>226.0K</t>
-        </is>
-      </c>
-      <c r="G1505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1506">
-      <c r="A1506" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1506" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/04</t>
-        </is>
-      </c>
-      <c r="C1506" t="inlineStr"/>
-      <c r="D1506" t="inlineStr">
-        <is>
-          <t>29Bcf</t>
-        </is>
-      </c>
-      <c r="E1506" t="inlineStr"/>
-      <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1507">
-      <c r="A1507" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1507" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1507" t="inlineStr"/>
-      <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
-      <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1508">
-      <c r="A1508" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1508" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1508" t="inlineStr"/>
-      <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr"/>
-      <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1509">
-      <c r="A1509" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1509" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
-      <c r="C1509" t="inlineStr"/>
-      <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr"/>
-      <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/10</t>
-        </is>
-      </c>
-      <c r="C1510" t="inlineStr"/>
-      <c r="D1510" t="inlineStr">
-        <is>
-          <t>5.82%</t>
-        </is>
-      </c>
-      <c r="E1510" t="inlineStr"/>
-      <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/10</t>
-        </is>
-      </c>
-      <c r="C1511" t="inlineStr"/>
-      <c r="D1511" t="inlineStr">
-        <is>
-          <t>6.64%</t>
-        </is>
-      </c>
-      <c r="E1511" t="inlineStr"/>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1512" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1512" t="inlineStr"/>
-      <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr"/>
-      <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1513" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1513" t="inlineStr"/>
-      <c r="D1513" t="inlineStr">
-        <is>
-          <t>4.623%</t>
-        </is>
-      </c>
-      <c r="E1513" t="inlineStr"/>
-      <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementMAR</t>
-        </is>
-      </c>
-      <c r="C1514" t="inlineStr"/>
-      <c r="D1514" t="inlineStr">
-        <is>
-          <t>$-307B</t>
-        </is>
-      </c>
-      <c r="E1514" t="inlineStr"/>
-      <c r="F1514" t="inlineStr">
-        <is>
-          <t>$-315.6B</t>
-        </is>
-      </c>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="inlineStr">
-        <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1515" t="inlineStr"/>
-      <c r="C1515" t="inlineStr"/>
-      <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr"/>
-      <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr"/>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1516" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/09</t>
-        </is>
-      </c>
-      <c r="C1516" t="inlineStr"/>
-      <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr"/>
-      <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr">
-        <is>
-          <t>PPI MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1517" t="inlineStr"/>
-      <c r="D1517" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1517" t="inlineStr"/>
-      <c r="F1517" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1517" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1518" t="inlineStr">
-        <is>
-          <t>Core PPI MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1518" t="inlineStr"/>
-      <c r="D1518" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1518" t="inlineStr"/>
-      <c r="F1518" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1519" t="inlineStr">
-        <is>
-          <t>Core PPI YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1519" t="inlineStr"/>
-      <c r="D1519" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1519" t="inlineStr"/>
-      <c r="F1519" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1520">
-      <c r="A1520" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1520" t="inlineStr">
-        <is>
-          <t>PPIMAR</t>
-        </is>
-      </c>
-      <c r="C1520" t="inlineStr"/>
-      <c r="D1520" t="inlineStr">
-        <is>
-          <t>147.953</t>
-        </is>
-      </c>
-      <c r="E1520" t="inlineStr"/>
-      <c r="F1520" t="inlineStr">
-        <is>
-          <t>147.8</t>
-        </is>
-      </c>
-      <c r="G1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1521">
-      <c r="A1521" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1521" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1521" t="inlineStr"/>
-      <c r="D1521" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1521" t="inlineStr"/>
-      <c r="F1521" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1522">
-      <c r="A1522" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1522" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1522" t="inlineStr"/>
-      <c r="D1522" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1522" t="inlineStr"/>
-      <c r="F1522" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1523">
-      <c r="A1523" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1523" t="inlineStr">
-        <is>
-          <t>PPI YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1523" t="inlineStr"/>
-      <c r="D1523" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E1523" t="inlineStr"/>
-      <c r="F1523" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1524" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1524" t="inlineStr"/>
-      <c r="D1524" t="inlineStr">
-        <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1524" t="inlineStr"/>
-      <c r="F1524" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1525" t="inlineStr"/>
-      <c r="D1525" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1525" t="inlineStr"/>
-      <c r="F1525" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1526" t="inlineStr"/>
-      <c r="D1526" t="inlineStr">
-        <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1526" t="inlineStr"/>
-      <c r="F1526" t="inlineStr">
-        <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="G1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1527" t="inlineStr"/>
-      <c r="D1527" t="inlineStr">
-        <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1527" t="inlineStr"/>
-      <c r="F1527" t="inlineStr">
-        <is>
-          <t>63.4</t>
-        </is>
-      </c>
-      <c r="G1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1528" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
-        </is>
-      </c>
-      <c r="C1528" t="inlineStr"/>
-      <c r="D1528" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E1528" t="inlineStr"/>
-      <c r="F1528" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G1528" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
-        </is>
-      </c>
-      <c r="C1529" t="inlineStr"/>
-      <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr"/>
-      <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1530">
-      <c r="A1530" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
-        </is>
-      </c>
-      <c r="C1530" t="inlineStr"/>
-      <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr"/>
-      <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1531">
-      <c r="A1531" t="inlineStr">
-        <is>
-          <t>Saturday April 12 2025</t>
-        </is>
-      </c>
-      <c r="B1531" t="inlineStr"/>
-      <c r="C1531" t="inlineStr"/>
-      <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr"/>
-      <c r="F1531" t="inlineStr"/>
-      <c r="G1531" t="inlineStr"/>
+      <c r="D1452" t="inlineStr"/>
+      <c r="E1452" t="inlineStr"/>
+      <c r="F1452" t="inlineStr"/>
+      <c r="G1452" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
